--- a/natmiOut/OldD4/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Clec1b</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>63.0949624116169</v>
+        <v>2.288007333333333</v>
       </c>
       <c r="H2">
-        <v>63.0949624116169</v>
+        <v>6.864021999999999</v>
       </c>
       <c r="I2">
-        <v>0.7055558065390016</v>
+        <v>0.02156675330991967</v>
       </c>
       <c r="J2">
-        <v>0.7055558065390016</v>
+        <v>0.02312067158895339</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.2145976196178</v>
+        <v>3.967408</v>
       </c>
       <c r="N2">
-        <v>3.2145976196178</v>
+        <v>11.902224</v>
       </c>
       <c r="O2">
-        <v>0.530396623048601</v>
+        <v>0.5020512342458132</v>
       </c>
       <c r="P2">
-        <v>0.530396623048601</v>
+        <v>0.5020512342458131</v>
       </c>
       <c r="Q2">
-        <v>202.8249159782582</v>
+        <v>9.077458598325334</v>
       </c>
       <c r="R2">
-        <v>202.8249159782582</v>
+        <v>81.697127384928</v>
       </c>
       <c r="S2">
-        <v>0.3742244171606185</v>
+        <v>0.01082761511792015</v>
       </c>
       <c r="T2">
-        <v>0.3742244171606185</v>
+        <v>0.01160776170782615</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>63.0949624116169</v>
+        <v>2.288007333333333</v>
       </c>
       <c r="H3">
-        <v>63.0949624116169</v>
+        <v>6.864021999999999</v>
       </c>
       <c r="I3">
-        <v>0.7055558065390016</v>
+        <v>0.02156675330991967</v>
       </c>
       <c r="J3">
-        <v>0.7055558065390016</v>
+        <v>0.02312067158895339</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.53702199489263</v>
+        <v>0.07895466666666666</v>
       </c>
       <c r="N3">
-        <v>1.53702199489263</v>
+        <v>0.236864</v>
       </c>
       <c r="O3">
-        <v>0.2536028990587637</v>
+        <v>0.009991230508550358</v>
       </c>
       <c r="P3">
-        <v>0.2536028990587637</v>
+        <v>0.009991230508550358</v>
       </c>
       <c r="Q3">
-        <v>96.97834499357892</v>
+        <v>0.1806488563342222</v>
       </c>
       <c r="R3">
-        <v>96.97834499357892</v>
+        <v>1.625839707008</v>
       </c>
       <c r="S3">
-        <v>0.178930997986035</v>
+        <v>0.0002154784036404489</v>
       </c>
       <c r="T3">
-        <v>0.178930997986035</v>
+        <v>0.0002310039593577246</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>63.0949624116169</v>
+        <v>2.288007333333333</v>
       </c>
       <c r="H4">
-        <v>63.0949624116169</v>
+        <v>6.864021999999999</v>
       </c>
       <c r="I4">
-        <v>0.7055558065390016</v>
+        <v>0.02156675330991967</v>
       </c>
       <c r="J4">
-        <v>0.7055558065390016</v>
+        <v>0.02312067158895339</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.30912338407997</v>
+        <v>2.367314666666667</v>
       </c>
       <c r="N4">
-        <v>1.30912338407997</v>
+        <v>7.101944000000001</v>
       </c>
       <c r="O4">
-        <v>0.2160004778926353</v>
+        <v>0.2995692024233998</v>
       </c>
       <c r="P4">
-        <v>0.2160004778926353</v>
+        <v>0.2995692024233998</v>
       </c>
       <c r="Q4">
-        <v>82.59909071069443</v>
+        <v>5.41643331764089</v>
       </c>
       <c r="R4">
-        <v>82.59909071069443</v>
+        <v>48.74789985876801</v>
       </c>
       <c r="S4">
-        <v>0.1524003913923481</v>
+        <v>0.006460735087914856</v>
       </c>
       <c r="T4">
-        <v>0.1524003913923481</v>
+        <v>0.006926241147396129</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>8.320015287239841</v>
+        <v>2.288007333333333</v>
       </c>
       <c r="H5">
-        <v>8.320015287239841</v>
+        <v>6.864021999999999</v>
       </c>
       <c r="I5">
-        <v>0.09303809483408956</v>
+        <v>0.02156675330991967</v>
       </c>
       <c r="J5">
-        <v>0.09303809483408956</v>
+        <v>0.02312067158895339</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.2145976196178</v>
+        <v>1.488719333333333</v>
       </c>
       <c r="N5">
-        <v>3.2145976196178</v>
+        <v>4.466158</v>
       </c>
       <c r="O5">
-        <v>0.530396623048601</v>
+        <v>0.1883883328222366</v>
       </c>
       <c r="P5">
-        <v>0.530396623048601</v>
+        <v>0.1883883328222366</v>
       </c>
       <c r="Q5">
-        <v>26.7455013375449</v>
+        <v>3.406200751941777</v>
       </c>
       <c r="R5">
-        <v>26.7455013375449</v>
+        <v>30.655806767476</v>
       </c>
       <c r="S5">
-        <v>0.04934709131487659</v>
+        <v>0.004062924700444221</v>
       </c>
       <c r="T5">
-        <v>0.04934709131487659</v>
+        <v>0.004355664774373382</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.320015287239841</v>
+        <v>66.24295066666666</v>
       </c>
       <c r="H6">
-        <v>8.320015287239841</v>
+        <v>198.728852</v>
       </c>
       <c r="I6">
-        <v>0.09303809483408956</v>
+        <v>0.6244059425578089</v>
       </c>
       <c r="J6">
-        <v>0.09303809483408956</v>
+        <v>0.6693953664982023</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.53702199489263</v>
+        <v>3.967408</v>
       </c>
       <c r="N6">
-        <v>1.53702199489263</v>
+        <v>11.902224</v>
       </c>
       <c r="O6">
-        <v>0.2536028990587637</v>
+        <v>0.5020512342458132</v>
       </c>
       <c r="P6">
-        <v>0.2536028990587637</v>
+        <v>0.5020512342458131</v>
       </c>
       <c r="Q6">
-        <v>12.78804649433056</v>
+        <v>262.8128124185387</v>
       </c>
       <c r="R6">
-        <v>12.78804649433056</v>
+        <v>2365.315311766848</v>
       </c>
       <c r="S6">
-        <v>0.0235947305728293</v>
+        <v>0.3134837741315683</v>
       </c>
       <c r="T6">
-        <v>0.0235947305728293</v>
+        <v>0.3360707699488509</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.320015287239841</v>
+        <v>66.24295066666666</v>
       </c>
       <c r="H7">
-        <v>8.320015287239841</v>
+        <v>198.728852</v>
       </c>
       <c r="I7">
-        <v>0.09303809483408956</v>
+        <v>0.6244059425578089</v>
       </c>
       <c r="J7">
-        <v>0.09303809483408956</v>
+        <v>0.6693953664982023</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.30912338407997</v>
+        <v>0.07895466666666666</v>
       </c>
       <c r="N7">
-        <v>1.30912338407997</v>
+        <v>0.236864</v>
       </c>
       <c r="O7">
-        <v>0.2160004778926353</v>
+        <v>0.009991230508550358</v>
       </c>
       <c r="P7">
-        <v>0.2160004778926353</v>
+        <v>0.009991230508550358</v>
       </c>
       <c r="Q7">
-        <v>10.8919265684285</v>
+        <v>5.23019008890311</v>
       </c>
       <c r="R7">
-        <v>10.8919265684285</v>
+        <v>47.071710800128</v>
       </c>
       <c r="S7">
-        <v>0.02009627294638367</v>
+        <v>0.006238583703003723</v>
       </c>
       <c r="T7">
-        <v>0.02009627294638367</v>
+        <v>0.006688083408039087</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.0109214672486</v>
+        <v>66.24295066666666</v>
       </c>
       <c r="H8">
-        <v>18.0109214672486</v>
+        <v>198.728852</v>
       </c>
       <c r="I8">
-        <v>0.2014060986269086</v>
+        <v>0.6244059425578089</v>
       </c>
       <c r="J8">
-        <v>0.2014060986269086</v>
+        <v>0.6693953664982023</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.2145976196178</v>
+        <v>2.367314666666667</v>
       </c>
       <c r="N8">
-        <v>3.2145976196178</v>
+        <v>7.101944000000001</v>
       </c>
       <c r="O8">
-        <v>0.530396623048601</v>
+        <v>0.2995692024233998</v>
       </c>
       <c r="P8">
-        <v>0.530396623048601</v>
+        <v>0.2995692024233998</v>
       </c>
       <c r="Q8">
-        <v>57.89786527574049</v>
+        <v>156.8179086764765</v>
       </c>
       <c r="R8">
-        <v>57.89786527574049</v>
+        <v>1411.361178088288</v>
       </c>
       <c r="S8">
-        <v>0.1068251145731058</v>
+        <v>0.187052790200474</v>
       </c>
       <c r="T8">
-        <v>0.1068251145731058</v>
+        <v>0.2005302360477859</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.0109214672486</v>
+        <v>66.24295066666666</v>
       </c>
       <c r="H9">
-        <v>18.0109214672486</v>
+        <v>198.728852</v>
       </c>
       <c r="I9">
-        <v>0.2014060986269086</v>
+        <v>0.6244059425578089</v>
       </c>
       <c r="J9">
-        <v>0.2014060986269086</v>
+        <v>0.6693953664982023</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.53702199489263</v>
+        <v>1.488719333333333</v>
       </c>
       <c r="N9">
-        <v>1.53702199489263</v>
+        <v>4.466158</v>
       </c>
       <c r="O9">
-        <v>0.2536028990587637</v>
+        <v>0.1883883328222366</v>
       </c>
       <c r="P9">
-        <v>0.2536028990587637</v>
+        <v>0.1883883328222366</v>
       </c>
       <c r="Q9">
-        <v>27.68318244344494</v>
+        <v>98.61716135451287</v>
       </c>
       <c r="R9">
-        <v>27.68318244344494</v>
+        <v>887.554452190616</v>
       </c>
       <c r="S9">
-        <v>0.05107717049989931</v>
+        <v>0.1176307945227629</v>
       </c>
       <c r="T9">
-        <v>0.05107717049989931</v>
+        <v>0.1261062770935264</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>6.677665333333333</v>
+      </c>
+      <c r="H10">
+        <v>20.032996</v>
+      </c>
+      <c r="I10">
+        <v>0.06294366230041332</v>
+      </c>
+      <c r="J10">
+        <v>0.0674788515332289</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.967408</v>
+      </c>
+      <c r="N10">
+        <v>11.902224</v>
+      </c>
+      <c r="O10">
+        <v>0.5020512342458132</v>
+      </c>
+      <c r="P10">
+        <v>0.5020512342458131</v>
+      </c>
+      <c r="Q10">
+        <v>26.49302286478933</v>
+      </c>
+      <c r="R10">
+        <v>238.437205783104</v>
+      </c>
+      <c r="S10">
+        <v>0.03160094334587417</v>
+      </c>
+      <c r="T10">
+        <v>0.03387784069774755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>6.677665333333333</v>
+      </c>
+      <c r="H11">
+        <v>20.032996</v>
+      </c>
+      <c r="I11">
+        <v>0.06294366230041332</v>
+      </c>
+      <c r="J11">
+        <v>0.0674788515332289</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.07895466666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.236864</v>
+      </c>
+      <c r="O11">
+        <v>0.009991230508550358</v>
+      </c>
+      <c r="P11">
+        <v>0.009991230508550358</v>
+      </c>
+      <c r="Q11">
+        <v>0.5272328405048888</v>
+      </c>
+      <c r="R11">
+        <v>4.745095564543999</v>
+      </c>
+      <c r="S11">
+        <v>0.0006288846390957805</v>
+      </c>
+      <c r="T11">
+        <v>0.0006741967601207367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>6.677665333333333</v>
+      </c>
+      <c r="H12">
+        <v>20.032996</v>
+      </c>
+      <c r="I12">
+        <v>0.06294366230041332</v>
+      </c>
+      <c r="J12">
+        <v>0.0674788515332289</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.367314666666667</v>
+      </c>
+      <c r="N12">
+        <v>7.101944000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.2995692024233998</v>
+      </c>
+      <c r="P12">
+        <v>0.2995692024233998</v>
+      </c>
+      <c r="Q12">
+        <v>15.80813508269156</v>
+      </c>
+      <c r="R12">
+        <v>142.273215744224</v>
+      </c>
+      <c r="S12">
+        <v>0.01885598271294264</v>
+      </c>
+      <c r="T12">
+        <v>0.02021458573425639</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>6.677665333333333</v>
+      </c>
+      <c r="H13">
+        <v>20.032996</v>
+      </c>
+      <c r="I13">
+        <v>0.06294366230041332</v>
+      </c>
+      <c r="J13">
+        <v>0.0674788515332289</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.488719333333333</v>
+      </c>
+      <c r="N13">
+        <v>4.466158</v>
+      </c>
+      <c r="O13">
+        <v>0.1883883328222366</v>
+      </c>
+      <c r="P13">
+        <v>0.1883883328222366</v>
+      </c>
+      <c r="Q13">
+        <v>9.94116948326311</v>
+      </c>
+      <c r="R13">
+        <v>89.47052534936799</v>
+      </c>
+      <c r="S13">
+        <v>0.01185785160250073</v>
+      </c>
+      <c r="T13">
+        <v>0.01271222834110422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>9.490401</v>
+      </c>
+      <c r="H14">
+        <v>28.471203</v>
+      </c>
+      <c r="I14">
+        <v>0.08945650400561726</v>
+      </c>
+      <c r="J14">
+        <v>0.09590198491575706</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.967408</v>
+      </c>
+      <c r="N14">
+        <v>11.902224</v>
+      </c>
+      <c r="O14">
+        <v>0.5020512342458132</v>
+      </c>
+      <c r="P14">
+        <v>0.5020512342458131</v>
+      </c>
+      <c r="Q14">
+        <v>37.65229285060801</v>
+      </c>
+      <c r="R14">
+        <v>338.870635655472</v>
+      </c>
+      <c r="S14">
+        <v>0.04491174824733568</v>
+      </c>
+      <c r="T14">
+        <v>0.04814770989357919</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>9.490401</v>
+      </c>
+      <c r="H15">
+        <v>28.471203</v>
+      </c>
+      <c r="I15">
+        <v>0.08945650400561726</v>
+      </c>
+      <c r="J15">
+        <v>0.09590198491575706</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.07895466666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.236864</v>
+      </c>
+      <c r="O15">
+        <v>0.009991230508550358</v>
+      </c>
+      <c r="P15">
+        <v>0.009991230508550358</v>
+      </c>
+      <c r="Q15">
+        <v>0.7493114474879999</v>
+      </c>
+      <c r="R15">
+        <v>6.743803027392</v>
+      </c>
+      <c r="S15">
+        <v>0.0008937805520091805</v>
+      </c>
+      <c r="T15">
+        <v>0.0009581788375208482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>9.490401</v>
+      </c>
+      <c r="H16">
+        <v>28.471203</v>
+      </c>
+      <c r="I16">
+        <v>0.08945650400561726</v>
+      </c>
+      <c r="J16">
+        <v>0.09590198491575706</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.367314666666667</v>
+      </c>
+      <c r="N16">
+        <v>7.101944000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.2995692024233998</v>
+      </c>
+      <c r="P16">
+        <v>0.2995692024233998</v>
+      </c>
+      <c r="Q16">
+        <v>22.466765479848</v>
+      </c>
+      <c r="R16">
+        <v>202.200889318632</v>
+      </c>
+      <c r="S16">
+        <v>0.02679841355654844</v>
+      </c>
+      <c r="T16">
+        <v>0.02872928113203427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>9.490401</v>
+      </c>
+      <c r="H17">
+        <v>28.471203</v>
+      </c>
+      <c r="I17">
+        <v>0.08945650400561726</v>
+      </c>
+      <c r="J17">
+        <v>0.09590198491575706</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.488719333333333</v>
+      </c>
+      <c r="N17">
+        <v>4.466158</v>
+      </c>
+      <c r="O17">
+        <v>0.1883883328222366</v>
+      </c>
+      <c r="P17">
+        <v>0.1883883328222366</v>
+      </c>
+      <c r="Q17">
+        <v>14.128543449786</v>
+      </c>
+      <c r="R17">
+        <v>127.156891048074</v>
+      </c>
+      <c r="S17">
+        <v>0.01685256164972397</v>
+      </c>
+      <c r="T17">
+        <v>0.01806681505262276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>21.390534</v>
+      </c>
+      <c r="H18">
+        <v>42.781068</v>
+      </c>
+      <c r="I18">
+        <v>0.2016271378262407</v>
+      </c>
+      <c r="J18">
+        <v>0.1441031254638583</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.967408</v>
+      </c>
+      <c r="N18">
+        <v>11.902224</v>
+      </c>
+      <c r="O18">
+        <v>0.5020512342458132</v>
+      </c>
+      <c r="P18">
+        <v>0.5020512342458131</v>
+      </c>
+      <c r="Q18">
+        <v>84.86497571587202</v>
+      </c>
+      <c r="R18">
+        <v>509.1898542952321</v>
+      </c>
+      <c r="S18">
+        <v>0.1012271534031148</v>
+      </c>
+      <c r="T18">
+        <v>0.07234715199780929</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>18.0109214672486</v>
-      </c>
-      <c r="H10">
-        <v>18.0109214672486</v>
-      </c>
-      <c r="I10">
-        <v>0.2014060986269086</v>
-      </c>
-      <c r="J10">
-        <v>0.2014060986269086</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.30912338407997</v>
-      </c>
-      <c r="N10">
-        <v>1.30912338407997</v>
-      </c>
-      <c r="O10">
-        <v>0.2160004778926353</v>
-      </c>
-      <c r="P10">
-        <v>0.2160004778926353</v>
-      </c>
-      <c r="Q10">
-        <v>23.57851846160307</v>
-      </c>
-      <c r="R10">
-        <v>23.57851846160307</v>
-      </c>
-      <c r="S10">
-        <v>0.0435038135539035</v>
-      </c>
-      <c r="T10">
-        <v>0.0435038135539035</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>21.390534</v>
+      </c>
+      <c r="H19">
+        <v>42.781068</v>
+      </c>
+      <c r="I19">
+        <v>0.2016271378262407</v>
+      </c>
+      <c r="J19">
+        <v>0.1441031254638583</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.07895466666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.236864</v>
+      </c>
+      <c r="O19">
+        <v>0.009991230508550358</v>
+      </c>
+      <c r="P19">
+        <v>0.009991230508550358</v>
+      </c>
+      <c r="Q19">
+        <v>1.688882481792</v>
+      </c>
+      <c r="R19">
+        <v>10.133294890752</v>
+      </c>
+      <c r="S19">
+        <v>0.002014503210801224</v>
+      </c>
+      <c r="T19">
+        <v>0.001439767543511961</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>21.390534</v>
+      </c>
+      <c r="H20">
+        <v>42.781068</v>
+      </c>
+      <c r="I20">
+        <v>0.2016271378262407</v>
+      </c>
+      <c r="J20">
+        <v>0.1441031254638583</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.367314666666667</v>
+      </c>
+      <c r="N20">
+        <v>7.101944000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.2995692024233998</v>
+      </c>
+      <c r="P20">
+        <v>0.2995692024233998</v>
+      </c>
+      <c r="Q20">
+        <v>50.63812486603202</v>
+      </c>
+      <c r="R20">
+        <v>303.8287491961921</v>
+      </c>
+      <c r="S20">
+        <v>0.06040128086551983</v>
+      </c>
+      <c r="T20">
+        <v>0.04316885836192714</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>21.390534</v>
+      </c>
+      <c r="H21">
+        <v>42.781068</v>
+      </c>
+      <c r="I21">
+        <v>0.2016271378262407</v>
+      </c>
+      <c r="J21">
+        <v>0.1441031254638583</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.488719333333333</v>
+      </c>
+      <c r="N21">
+        <v>4.466158</v>
+      </c>
+      <c r="O21">
+        <v>0.1883883328222366</v>
+      </c>
+      <c r="P21">
+        <v>0.1883883328222366</v>
+      </c>
+      <c r="Q21">
+        <v>31.844501516124</v>
+      </c>
+      <c r="R21">
+        <v>191.067009096744</v>
+      </c>
+      <c r="S21">
+        <v>0.0379842003468048</v>
+      </c>
+      <c r="T21">
+        <v>0.02714734756060985</v>
       </c>
     </row>
   </sheetData>
